--- a/fuentes/contenidos/grado11/guion09/ESCALETA_FINAL_CN_11_09_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion09/ESCALETA_FINAL_CN_11_09_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion09\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$P$1:$P$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$P$1:$P$99</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="234">
   <si>
     <t>Asignatura</t>
   </si>
@@ -738,15 +738,6 @@
     <t>Recurso M101AP-01</t>
   </si>
   <si>
-    <t>Competencias: elaboración de una pila con limones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que propone hacer un experimento para evidenciar la transformación de energía química en energía eléctrica </t>
-  </si>
-  <si>
-    <t>Recurso M102AB-01</t>
-  </si>
-  <si>
     <t>Competencias: cantidad de hidrogenocarbonato en un antiácido</t>
   </si>
   <si>
@@ -826,7 +817,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,15 +861,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,14 +923,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1050,69 +1028,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1132,17 +1051,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1236,12 +1144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1257,27 +1163,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,116 +1181,47 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:BO99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,3712 +1534,4004 @@
     <col min="5" max="5" width="60.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="7"/>
+    <col min="8" max="9" width="11.42578125" style="5"/>
     <col min="10" max="10" width="92.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="7" customWidth="1"/>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="14" style="9" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="11" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14" style="7" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="11" style="5" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" customWidth="1"/>
     <col min="19" max="19" width="27.85546875" customWidth="1"/>
     <col min="20" max="20" width="61.5703125" customWidth="1"/>
     <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="67" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="84" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="84" t="s">
+      <c r="P1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="84" t="s">
+      <c r="T1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="84" t="s">
+      <c r="U1" s="32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="46" t="s">
+    <row r="2" spans="1:67" s="10" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="40"/>
+      <c r="BM2" s="40"/>
+      <c r="BN2" s="40"/>
+      <c r="BO2" s="40"/>
+    </row>
+    <row r="3" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="22">
         <v>1</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="37" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="1">
         <v>6</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="11" t="s">
         <v>159</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="26"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="37"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="22">
         <v>2</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="s">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="37" t="s">
+      <c r="O7" s="27"/>
+      <c r="P7" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="1">
         <v>6</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="11" t="s">
         <v>162</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="22">
+        <v>3</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="70">
-        <v>3</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="71" t="s">
+      <c r="T8" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="U8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+    </row>
+    <row r="9" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="22">
+        <v>4</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="P8" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="77">
-        <v>6</v>
-      </c>
-      <c r="R8" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="S8" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="T8" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="U8" s="79" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="30">
-        <v>4</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="37"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="1">
         <v>6</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T11" s="13" t="s">
-        <v>232</v>
+      <c r="T11" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="70">
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="22">
         <v>5</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="K12" s="72" t="s">
+      <c r="J12" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="73" t="s">
+      <c r="L12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="74" t="s">
+      <c r="M12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77">
+      <c r="N12" s="28"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="1">
         <v>6</v>
       </c>
-      <c r="R12" s="78" t="s">
+      <c r="R12" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S12" s="78" t="s">
+      <c r="S12" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="T12" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="U12" s="79" t="s">
+      <c r="T12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+    </row>
+    <row r="13" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="37"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="37"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="22">
         <v>6</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="37" t="s">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="11" t="s">
         <v>134</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="22">
         <v>7</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="43" t="s">
+      <c r="L16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="41" t="s">
+      <c r="M16" s="28"/>
+      <c r="N16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="37" t="s">
+      <c r="O16" s="27"/>
+      <c r="P16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="Q16" s="1">
         <v>6</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="11" t="s">
         <v>183</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="22">
         <v>8</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="37" t="s">
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="11" t="s">
         <v>137</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    </row>
+    <row r="18" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="22">
         <v>9</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="37" t="s">
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="S18" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="11" t="s">
         <v>198</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    </row>
+    <row r="19" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="22">
         <v>10</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="37" t="s">
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S19" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="11" t="s">
         <v>199</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    </row>
+    <row r="20" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="37"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="29" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="22">
         <v>11</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="36" t="s">
+      <c r="L21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39" t="s">
+      <c r="M21" s="28"/>
+      <c r="N21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="37" t="s">
+      <c r="O21" s="27"/>
+      <c r="P21" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="1">
         <v>6</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="11" t="s">
         <v>172</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+    <row r="22" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" s="70">
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="22">
         <v>12</v>
       </c>
-      <c r="I22" s="70" t="s">
+      <c r="I22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="K22" s="72" t="s">
+      <c r="J22" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="73" t="s">
+      <c r="L22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="74" t="s">
+      <c r="M22" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="74"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="76" t="s">
+      <c r="N22" s="28"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="80">
+      <c r="Q22" s="1">
         <v>6</v>
       </c>
-      <c r="R22" s="80" t="s">
+      <c r="R22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S22" s="80" t="s">
+      <c r="S22" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="T22" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="U22" s="80" t="s">
+      <c r="T22" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+    </row>
+    <row r="23" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="29" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="22">
         <v>13</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="37" t="s">
+      <c r="N23" s="28"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="11" t="s">
         <v>140</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    </row>
+    <row r="24" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="37"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="37"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="37"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="29" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="22">
         <v>14</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="K27" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="38" t="s">
+      <c r="L27" s="25"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="P27" s="37" t="s">
+      <c r="P27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="11" t="s">
         <v>141</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    </row>
+    <row r="28" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="22">
         <v>15</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="37" t="s">
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="S28" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T28" s="13" t="s">
+      <c r="T28" s="11" t="s">
         <v>200</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    </row>
+    <row r="29" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="29" t="s">
+      <c r="F29" s="20"/>
+      <c r="G29" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="22">
         <v>16</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="37" t="s">
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="T29" s="11" t="s">
         <v>201</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="37"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="37"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="26"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="37"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="26"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="37"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="26"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="29" t="s">
+      <c r="F34" s="20"/>
+      <c r="G34" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="22">
         <v>17</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="K34" s="35" t="s">
+      <c r="K34" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39" t="s">
+      <c r="M34" s="28"/>
+      <c r="N34" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="O34" s="38"/>
-      <c r="P34" s="37" t="s">
+      <c r="O34" s="27"/>
+      <c r="P34" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="1">
         <v>6</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="R34" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="S34" s="13" t="s">
+      <c r="S34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T34" s="13" t="s">
+      <c r="T34" s="11" t="s">
         <v>177</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
+    <row r="35" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="H35" s="70">
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="22">
         <v>18</v>
       </c>
-      <c r="I35" s="70" t="s">
+      <c r="I35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="K35" s="72" t="s">
+      <c r="J35" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K35" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="73" t="s">
+      <c r="L35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="74" t="s">
+      <c r="M35" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="76" t="s">
+      <c r="N35" s="28"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="77">
+      <c r="Q35" s="1">
         <v>6</v>
       </c>
-      <c r="R35" s="78" t="s">
+      <c r="R35" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S35" s="78" t="s">
+      <c r="S35" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="T35" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="U35" s="79" t="s">
+      <c r="T35" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="U35" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
+      <c r="BJ35" s="3"/>
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="3"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="3"/>
+    </row>
+    <row r="36" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="29" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="22">
         <v>19</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K36" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L36" s="36" t="s">
+      <c r="L36" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="37" t="s">
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R36" s="13" t="s">
+      <c r="R36" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S36" s="13" t="s">
+      <c r="S36" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="11" t="s">
         <v>144</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V36" s="5"/>
-    </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+    </row>
+    <row r="37" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="29" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="22">
         <v>20</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="I37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K37" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="37" t="s">
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R37" s="13" t="s">
+      <c r="R37" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="T37" s="11" t="s">
         <v>145</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V37" s="5"/>
-    </row>
-    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+    </row>
+    <row r="38" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="20"/>
+      <c r="G38" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="22">
         <v>21</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="K38" s="35" t="s">
+      <c r="K38" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="37" t="s">
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R38" s="13" t="s">
+      <c r="R38" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T38" s="11" t="s">
         <v>146</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V38" s="5"/>
-    </row>
-    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    </row>
+    <row r="39" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="37"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="26"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
       <c r="U39" s="2"/>
-      <c r="V39" s="5"/>
-    </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+    </row>
+    <row r="40" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="37"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="26"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
       <c r="U40" s="2"/>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+    </row>
+    <row r="41" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="37"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="26"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
       <c r="U41" s="2"/>
-      <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+    </row>
+    <row r="42" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="37"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="26"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+    </row>
+    <row r="43" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="37"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="26"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
       <c r="U43" s="2"/>
-      <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    </row>
+    <row r="44" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="37"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="26"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
       <c r="U44" s="2"/>
-      <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    </row>
+    <row r="45" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="19"/>
+      <c r="F45" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="37"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="26"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
       <c r="U45" s="2"/>
-      <c r="V45" s="5"/>
-    </row>
-    <row r="46" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+    </row>
+    <row r="46" spans="1:67" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26" t="s">
+      <c r="E46" s="19"/>
+      <c r="F46" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="22">
         <v>22</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="K46" s="35" t="s">
+      <c r="K46" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L46" s="36" t="s">
+      <c r="L46" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="38" t="s">
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="P46" s="37" t="s">
+      <c r="P46" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q46" s="1">
         <v>6</v>
       </c>
-      <c r="R46" s="13" t="s">
+      <c r="R46" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S46" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>234</v>
+      <c r="S46" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="T46" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:67" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51" t="s">
+      <c r="E47" s="19"/>
+      <c r="F47" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H47" s="53">
+      <c r="H47" s="22">
         <v>23</v>
       </c>
-      <c r="I47" s="53" t="s">
+      <c r="I47" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="54" t="s">
+      <c r="J47" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="K47" s="55" t="s">
+      <c r="K47" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L47" s="56" t="s">
+      <c r="L47" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57" t="s">
+      <c r="M47" s="28"/>
+      <c r="N47" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O47" s="58"/>
-      <c r="P47" s="59" t="s">
+      <c r="O47" s="27"/>
+      <c r="P47" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="60" t="s">
+      <c r="Q47" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R47" s="61" t="s">
+      <c r="R47" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S47" s="61" t="s">
+      <c r="S47" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T47" s="61" t="s">
+      <c r="T47" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="U47" s="62" t="s">
+      <c r="U47" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
+      <c r="BJ47" s="3"/>
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
+      <c r="BO47" s="3"/>
+    </row>
+    <row r="48" spans="1:67" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51" t="s">
+      <c r="E48" s="19"/>
+      <c r="F48" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="83" t="s">
+      <c r="G48" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="H48" s="53">
+      <c r="H48" s="22">
         <v>24</v>
       </c>
-      <c r="I48" s="53" t="s">
+      <c r="I48" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="54" t="s">
+      <c r="J48" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K48" s="55" t="s">
+      <c r="K48" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="56" t="s">
+      <c r="L48" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57" t="s">
+      <c r="M48" s="28"/>
+      <c r="N48" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="O48" s="58"/>
-      <c r="P48" s="82" t="s">
+      <c r="O48" s="27"/>
+      <c r="P48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Q48" s="60">
+      <c r="Q48" s="1">
         <v>6</v>
       </c>
-      <c r="R48" s="61" t="s">
+      <c r="R48" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="S48" s="61" t="s">
+      <c r="S48" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T48" s="61" t="s">
+      <c r="T48" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="U48" s="62" t="s">
+      <c r="U48" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="3"/>
+      <c r="BM48" s="3"/>
+      <c r="BN48" s="3"/>
+      <c r="BO48" s="3"/>
+    </row>
+    <row r="49" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="52" t="s">
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H49" s="22">
         <v>25</v>
       </c>
-      <c r="I49" s="53" t="s">
+      <c r="I49" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="54" t="s">
+      <c r="J49" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="K49" s="55" t="s">
+      <c r="K49" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L49" s="56" t="s">
+      <c r="L49" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="82" t="s">
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="60" t="s">
+      <c r="Q49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R49" s="61" t="s">
+      <c r="R49" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S49" s="61" t="s">
+      <c r="S49" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T49" s="61" t="s">
+      <c r="T49" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="U49" s="62" t="s">
+      <c r="U49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V49" s="5"/>
-    </row>
-    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+    </row>
+    <row r="50" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="29" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="22">
         <v>26</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K50" s="35" t="s">
+      <c r="K50" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L50" s="36" t="s">
+      <c r="L50" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39" t="s">
+      <c r="M50" s="28"/>
+      <c r="N50" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="O50" s="38"/>
-      <c r="P50" s="37" t="s">
+      <c r="O50" s="27"/>
+      <c r="P50" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q50" s="1">
         <v>6</v>
       </c>
-      <c r="R50" s="13" t="s">
+      <c r="R50" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="S50" s="13" t="s">
+      <c r="S50" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="T50" s="11" t="s">
         <v>190</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="V50" s="5"/>
-    </row>
-    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+    </row>
+    <row r="51" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="29" t="s">
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="22">
         <v>27</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="I51" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="31" t="s">
+      <c r="J51" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="K51" s="35" t="s">
+      <c r="K51" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L51" s="36" t="s">
+      <c r="L51" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39" t="s">
+      <c r="M51" s="28"/>
+      <c r="N51" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="O51" s="38"/>
-      <c r="P51" s="37" t="s">
+      <c r="O51" s="27"/>
+      <c r="P51" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R51" s="13" t="s">
+      <c r="R51" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S51" s="13" t="s">
+      <c r="S51" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T51" s="13" t="s">
-        <v>212</v>
+      <c r="T51" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V51" s="5"/>
-    </row>
-    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+    </row>
+    <row r="52" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="H52" s="30">
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="H52" s="22">
         <v>28</v>
       </c>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="K52" s="35" t="s">
+      <c r="J52" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K52" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O52" s="27"/>
+      <c r="P52" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+      <c r="BC52" s="3"/>
+      <c r="BD52" s="3"/>
+      <c r="BE52" s="3"/>
+      <c r="BF52" s="3"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="3"/>
+      <c r="BI52" s="3"/>
+      <c r="BJ52" s="3"/>
+      <c r="BK52" s="3"/>
+      <c r="BL52" s="3"/>
+      <c r="BM52" s="3"/>
+      <c r="BN52" s="3"/>
+      <c r="BO52" s="3"/>
+    </row>
+    <row r="53" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" s="22">
+        <v>29</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K53" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L52" s="36" t="s">
+      <c r="L53" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="22">
+        <v>30</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="O52" s="38"/>
-      <c r="P52" s="37" t="s">
+      <c r="M54" s="28"/>
+      <c r="N54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="27"/>
+      <c r="P54" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q54" s="1">
         <v>6</v>
       </c>
-      <c r="R52" s="13" t="s">
+      <c r="R54" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="S52" s="13" t="s">
+      <c r="S54" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T52" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="U52" s="2" t="s">
+      <c r="T54" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="U54" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="V52" s="5"/>
-    </row>
-    <row r="53" spans="1:22" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+    </row>
+    <row r="55" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B55" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C55" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="67"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69" t="s">
-        <v>225</v>
-      </c>
-      <c r="H53" s="70">
-        <v>29</v>
-      </c>
-      <c r="I53" s="70" t="s">
+      <c r="D55" s="18"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" s="22">
+        <v>31</v>
+      </c>
+      <c r="I55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="K53" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="L53" s="73" t="s">
+      <c r="J55" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="O53" s="75"/>
-      <c r="P53" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q53" s="80" t="s">
-        <v>226</v>
-      </c>
-      <c r="R53" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="S53" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="T53" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="U53" s="79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="H54" s="30">
-        <v>30</v>
-      </c>
-      <c r="I54" s="30" t="s">
+      <c r="M55" s="28"/>
+      <c r="N55" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O55" s="27"/>
+      <c r="P55" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="J54" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="K54" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="L54" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="5"/>
-    </row>
-    <row r="55" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="H55" s="30">
-        <v>31</v>
-      </c>
-      <c r="I55" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="K55" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="L55" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O55" s="38"/>
-      <c r="P55" s="37" t="s">
-        <v>19</v>
       </c>
       <c r="Q55" s="1">
         <v>6</v>
       </c>
-      <c r="R55" s="13" t="s">
+      <c r="R55" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="S55" s="13" t="s">
+      <c r="S55" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T55" s="13" t="s">
-        <v>194</v>
+      <c r="T55" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="V55" s="5"/>
-    </row>
-    <row r="56" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="H56" s="30">
-        <v>32</v>
-      </c>
-      <c r="I56" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="K56" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="L56" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="O56" s="38"/>
-      <c r="P56" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>6</v>
-      </c>
-      <c r="R56" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="S56" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="37"/>
+    </row>
+    <row r="56" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="26"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="37"/>
+    <row r="58" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="26"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="37"/>
+    <row r="59" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="26"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="37"/>
+    <row r="60" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="26"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="37"/>
+    <row r="61" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="26"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="37"/>
+    <row r="62" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="26"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="37"/>
+    <row r="63" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="26"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="37"/>
+    <row r="64" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="26"/>
       <c r="Q64" s="1"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="37"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="26"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="37"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="26"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="37"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="26"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="37"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="26"/>
       <c r="Q68" s="1"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="37"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="26"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="37"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="26"/>
       <c r="Q70" s="1"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="37"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="26"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="37"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="26"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="37"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="26"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="37"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="26"/>
       <c r="Q74" s="1"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="37"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="26"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="37"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="26"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="37"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="26"/>
       <c r="Q77" s="1"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="37"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="26"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="37"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="26"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="37"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="26"/>
       <c r="Q80" s="1"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="37"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="26"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="37"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="26"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="37"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="26"/>
       <c r="Q83" s="1"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="37"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="26"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="39"/>
-      <c r="N85" s="39"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="37"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="26"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="37"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="26"/>
       <c r="Q86" s="1"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="37"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="26"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="13"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="37"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="26"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="37"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="26"/>
       <c r="Q89" s="1"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
       <c r="U89" s="2"/>
     </row>
     <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="37"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="26"/>
       <c r="Q90" s="1"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="37"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="26"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
       <c r="U91" s="2"/>
     </row>
     <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="37"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="26"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="37"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="26"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
       <c r="U93" s="2"/>
     </row>
     <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="37"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="26"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="39"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="37"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="26"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="38"/>
-      <c r="P96" s="37"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="26"/>
       <c r="Q96" s="1"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
-      <c r="T96" s="13"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="39"/>
-      <c r="O97" s="38"/>
-      <c r="P97" s="37"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="28"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="26"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="13"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
       <c r="U97" s="2"/>
     </row>
     <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="39"/>
-      <c r="O98" s="38"/>
-      <c r="P98" s="37"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="26"/>
       <c r="Q98" s="1"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="13"/>
-      <c r="T98" s="13"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="39"/>
-      <c r="O99" s="38"/>
-      <c r="P99" s="37"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="26"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
       <c r="U99" s="2"/>
-    </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="38"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="U1:U2"/>
@@ -5428,82 +5547,53 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A22 A24:A100</xm:sqref>
+          <xm:sqref>A3:A22 A24:A99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K22 K24:K100</xm:sqref>
+          <xm:sqref>K3:K22 K24:K99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L22 L24:L100</xm:sqref>
+          <xm:sqref>L3:L22 L24:L99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P22 P24:P100</xm:sqref>
+          <xm:sqref>P3:P22 P24:P99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N22 N24:N100</xm:sqref>
+          <xm:sqref>N3:N22 N24:N99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M22 M24:M100</xm:sqref>
+          <xm:sqref>M3:M22 M24:M99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>N23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>M23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>P23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K23</xm:sqref>
+          <xm:sqref>P23 K23:N23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5535,624 +5625,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="11"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="9"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="11"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="8"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="11"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="9"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="11"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="8"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="9"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="11"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="11"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="9"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="11"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="11"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="9"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="11"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="11"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="11"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="11"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="11"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="15" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
   </sheetData>
   <sheetProtection password="C9E9" sheet="1" objects="1" scenarios="1"/>

--- a/fuentes/contenidos/grado11/guion09/ESCALETA_FINAL_CN_11_09_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion09/ESCALETA_FINAL_CN_11_09_CO.xlsx
@@ -390,16 +390,10 @@
     <t>Las reacciones óxido-reducción</t>
   </si>
   <si>
-    <t xml:space="preserve">Las celdas electroquímicas </t>
-  </si>
-  <si>
     <t>El potencial estándar de reducción</t>
   </si>
   <si>
     <t>La fuerza electromotriz de una celda</t>
-  </si>
-  <si>
-    <t>Aplicaciones de la celdas electroquímicas en la vida diaria</t>
   </si>
   <si>
     <t xml:space="preserve">Los ácidos y las bases fuertes </t>
@@ -811,6 +805,12 @@
   </si>
   <si>
     <t>Recurso F6-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las celdas galvánicas </t>
+  </si>
+  <si>
+    <t>Aplicaciones de la celdas galvánicas en la vida diaria</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1197,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,9 +1222,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,140 +1551,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="32" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:67" s="10" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="29" t="s">
         <v>87</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="32"/>
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="32"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
     </row>
     <row r="3" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1702,7 +1702,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
       <c r="G3" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H3" s="22">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>69</v>
@@ -1731,16 +1731,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="U3" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H7" s="22">
         <v>2</v>
@@ -1869,7 +1869,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>69</v>
@@ -1889,16 +1889,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H8" s="22">
         <v>3</v>
@@ -1926,7 +1926,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>69</v>
@@ -1935,7 +1935,7 @@
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P8" s="26" t="s">
         <v>19</v>
@@ -1944,16 +1944,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S8" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H11" s="22">
         <v>4</v>
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>69</v>
@@ -2111,16 +2111,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H12" s="22">
         <v>5</v>
@@ -2148,7 +2148,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>69</v>
@@ -2166,16 +2166,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2307,10 +2307,10 @@
         <v>109</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H15" s="22">
         <v>6</v>
@@ -2319,7 +2319,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>70</v>
@@ -2334,19 +2334,19 @@
         <v>19</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T15" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2366,10 +2366,10 @@
         <v>109</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H16" s="22">
         <v>7</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>69</v>
@@ -2398,16 +2398,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2427,10 +2427,10 @@
         <v>109</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H17" s="22">
         <v>8</v>
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>70</v>
@@ -2454,19 +2454,19 @@
         <v>19</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T17" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,10 +2486,10 @@
         <v>109</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H18" s="22">
         <v>9</v>
@@ -2498,7 +2498,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>70</v>
@@ -2513,19 +2513,19 @@
         <v>19</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="T18" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>198</v>
-      </c>
       <c r="U18" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,10 +2545,10 @@
         <v>109</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H19" s="22">
         <v>10</v>
@@ -2557,7 +2557,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>70</v>
@@ -2572,19 +2572,19 @@
         <v>19</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R19" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="U19" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H21" s="22">
         <v>11</v>
@@ -2647,7 +2647,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>69</v>
@@ -2667,16 +2667,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
       <c r="G22" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H22" s="22">
         <v>12</v>
@@ -2704,7 +2704,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>69</v>
@@ -2724,16 +2724,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" s="22">
         <v>13</v>
@@ -2809,7 +2809,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>70</v>
@@ -2826,19 +2826,19 @@
         <v>19</v>
       </c>
       <c r="Q23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S23" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T23" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H27" s="22">
         <v>14</v>
@@ -2967,7 +2967,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>70</v>
@@ -2976,25 +2976,25 @@
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
       <c r="O27" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S27" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T27" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>70</v>
@@ -3039,19 +3039,19 @@
         <v>19</v>
       </c>
       <c r="Q28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T28" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H29" s="22">
         <v>16</v>
@@ -3081,7 +3081,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>70</v>
@@ -3096,19 +3096,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S29" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T29" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.25">
@@ -3128,7 +3128,7 @@
         <v>115</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="22"/>
@@ -3163,7 +3163,7 @@
         <v>116</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="22"/>
@@ -3198,7 +3198,7 @@
         <v>116</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="22"/>
@@ -3233,7 +3233,7 @@
         <v>116</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="22"/>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H34" s="22">
         <v>17</v>
@@ -3278,7 +3278,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>69</v>
@@ -3298,16 +3298,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="U34" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,7 +3326,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
       <c r="G35" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H35" s="22">
         <v>18</v>
@@ -3335,7 +3335,7 @@
         <v>19</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>69</v>
@@ -3355,16 +3355,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S35" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="U35" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -3429,7 +3429,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
       <c r="G36" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" s="22">
         <v>19</v>
@@ -3438,7 +3438,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>70</v>
@@ -3453,19 +3453,19 @@
         <v>19</v>
       </c>
       <c r="Q36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S36" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R36" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T36" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
       <c r="G37" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H37" s="22">
         <v>20</v>
@@ -3493,7 +3493,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K37" s="24" t="s">
         <v>70</v>
@@ -3508,19 +3508,19 @@
         <v>19</v>
       </c>
       <c r="Q37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S37" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R37" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T37" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H38" s="22">
         <v>21</v>
@@ -3550,7 +3550,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>70</v>
@@ -3565,19 +3565,19 @@
         <v>19</v>
       </c>
       <c r="Q38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S38" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R38" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T38" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>98</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
@@ -3693,7 +3693,7 @@
         <v>98</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="21"/>
@@ -3726,7 +3726,7 @@
         <v>98</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="21"/>
@@ -3759,10 +3759,10 @@
         <v>98</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="22"/>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="22"/>
@@ -3828,10 +3828,10 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H46" s="22">
         <v>22</v>
@@ -3840,7 +3840,7 @@
         <v>19</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K46" s="24" t="s">
         <v>69</v>
@@ -3851,7 +3851,7 @@
       <c r="M46" s="28"/>
       <c r="N46" s="28"/>
       <c r="O46" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P46" s="26" t="s">
         <v>19</v>
@@ -3860,16 +3860,16 @@
         <v>6</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S46" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="T46" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="U46" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="T46" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:67" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3887,10 +3887,10 @@
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H47" s="22">
         <v>23</v>
@@ -3899,7 +3899,7 @@
         <v>20</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K47" s="24" t="s">
         <v>70</v>
@@ -3916,19 +3916,19 @@
         <v>19</v>
       </c>
       <c r="Q47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S47" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R47" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T47" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -3992,10 +3992,10 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H48" s="22">
         <v>24</v>
@@ -4004,7 +4004,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K48" s="24" t="s">
         <v>69</v>
@@ -4024,16 +4024,16 @@
         <v>6</v>
       </c>
       <c r="R48" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="U48" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S48" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T48" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -4098,7 +4098,7 @@
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
       <c r="G49" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H49" s="22">
         <v>25</v>
@@ -4107,7 +4107,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K49" s="24" t="s">
         <v>70</v>
@@ -4122,19 +4122,19 @@
         <v>20</v>
       </c>
       <c r="Q49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S49" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R49" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T49" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H50" s="22">
         <v>26</v>
@@ -4164,7 +4164,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K50" s="24" t="s">
         <v>69</v>
@@ -4184,16 +4184,16 @@
         <v>6</v>
       </c>
       <c r="R50" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="U50" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S50" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T50" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,12 +4207,12 @@
         <v>91</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
       <c r="G51" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H51" s="22">
         <v>27</v>
@@ -4221,7 +4221,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K51" s="24" t="s">
         <v>70</v>
@@ -4238,19 +4238,19 @@
         <v>19</v>
       </c>
       <c r="Q51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S51" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R51" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S51" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="T51" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:67" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4264,12 +4264,12 @@
         <v>91</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
       <c r="G52" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H52" s="22">
         <v>28</v>
@@ -4278,7 +4278,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K52" s="24" t="s">
         <v>70</v>
@@ -4295,19 +4295,19 @@
         <v>19</v>
       </c>
       <c r="Q52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T52" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="R52" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S52" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="U52" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
@@ -4372,7 +4372,7 @@
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
       <c r="G53" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H53" s="22">
         <v>29</v>
@@ -4381,7 +4381,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>69</v>
@@ -4417,7 +4417,7 @@
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
       <c r="G54" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H54" s="22">
         <v>30</v>
@@ -4426,7 +4426,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K54" s="24" t="s">
         <v>69</v>
@@ -4446,16 +4446,16 @@
         <v>6</v>
       </c>
       <c r="R54" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="U54" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S54" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T54" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
       <c r="G55" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H55" s="22">
         <v>31</v>
@@ -4481,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K55" s="24" t="s">
         <v>69</v>
@@ -4501,16 +4501,16 @@
         <v>6</v>
       </c>
       <c r="R55" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S55" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T55" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="U55" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S55" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5527,11 +5527,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="U1:U2"/>
@@ -5547,6 +5542,11 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion09/ESCALETA_FINAL_CN_11_09_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion09/ESCALETA_FINAL_CN_11_09_CO.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="235">
   <si>
     <t>Asignatura</t>
   </si>
@@ -525,90 +525,6 @@
     <t>Actividad para practicar el cálculo del pH de disoluciones ácidas y básicas</t>
   </si>
   <si>
-    <r>
-      <t>Calcula el pH o la concentración de iones H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en disoluciones </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Actividad para practicar el cálculo del pH y  concentración de iones H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad para clasificar ácidos y bases fuertes y débiles </t>
   </si>
   <si>
@@ -663,9 +579,6 @@
     <t>Recurso M11A-01</t>
   </si>
   <si>
-    <t>Actividad que permite identificar los conceptos importantes en las celdas electroquímicas</t>
-  </si>
-  <si>
     <t>Interactivo con animación que muestra la electrólisis y sus aplicaciones industriales</t>
   </si>
   <si>
@@ -678,9 +591,6 @@
     <t>Recurso M101A-05</t>
   </si>
   <si>
-    <t>Actividad que propone realizar un experimento para determinar la concentración de una disolución mediante una valoración ácido-base</t>
-  </si>
-  <si>
     <t>Actividad con animación incluida para practicar las diferencias entre los ácidos y las bases</t>
   </si>
   <si>
@@ -735,9 +645,6 @@
     <t>Competencias: cantidad de hidrogenocarbonato en un antiácido</t>
   </si>
   <si>
-    <t>La autodisociación del agua</t>
-  </si>
-  <si>
     <t>Secuencia de imágenes que permite explicar la propiedad del agua de actuar como ácido o base</t>
   </si>
   <si>
@@ -753,12 +660,6 @@
     <t>RM_01_02_CO</t>
   </si>
   <si>
-    <t xml:space="preserve">La medida de la acidez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo para explicar el concepto de pH y pOH en disoluciones </t>
-  </si>
-  <si>
     <t>Recurso F6-02</t>
   </si>
   <si>
@@ -811,13 +712,37 @@
   </si>
   <si>
     <t>Aplicaciones de la celdas galvánicas en la vida diaria</t>
+  </si>
+  <si>
+    <t>El equilibrio iónico del agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El pH y la fuerza de los ácidos y las bases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que permite explicar el pH en las disoluciones acuosas y la fuerza relativa de ácidos y bases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realiza los cálculos de las disoluciones </t>
+  </si>
+  <si>
+    <t>Actividad para practicar los cálculos de pH, pOH  y  las concentraciones de iones hidronio e hidroxilo</t>
+  </si>
+  <si>
+    <t>Actividades sobre Los indicadores ácido-base</t>
+  </si>
+  <si>
+    <t>Actividad que permite afianzar algunos conceptos importantes en las celdas electroquímicas</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar una práctica de laboratorio para determinar la concentración de una disolución mediante una valoración ácido-base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,22 +769,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1521,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,7 +1826,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H8" s="22">
         <v>3</v>
@@ -1926,7 +1835,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>69</v>
@@ -1935,7 +1844,7 @@
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P8" s="26" t="s">
         <v>19</v>
@@ -1947,13 +1856,13 @@
         <v>150</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -2117,7 +2026,7 @@
         <v>151</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>152</v>
@@ -2139,7 +2048,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="H12" s="22">
         <v>5</v>
@@ -2148,7 +2057,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>69</v>
@@ -2172,7 +2081,7 @@
         <v>156</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>158</v>
@@ -2334,13 +2243,13 @@
         <v>19</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T15" s="11" t="s">
         <v>132</v>
@@ -2349,7 +2258,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>67</v>
       </c>
@@ -2369,7 +2278,7 @@
         <v>121</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="H16" s="22">
         <v>7</v>
@@ -2378,7 +2287,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>69</v>
@@ -2404,7 +2313,7 @@
         <v>151</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>152</v>
@@ -2439,7 +2348,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>70</v>
@@ -2454,13 +2363,13 @@
         <v>19</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>135</v>
@@ -2498,7 +2407,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>70</v>
@@ -2513,16 +2422,16 @@
         <v>19</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>162</v>
@@ -2557,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>70</v>
@@ -2572,16 +2481,16 @@
         <v>19</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="T19" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>162</v>
@@ -2647,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>69</v>
@@ -2673,7 +2582,7 @@
         <v>151</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>152</v>
@@ -2695,7 +2604,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
       <c r="G22" s="21" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H22" s="22">
         <v>12</v>
@@ -2704,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>69</v>
@@ -2730,7 +2639,7 @@
         <v>156</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>158</v>
@@ -2809,7 +2718,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>70</v>
@@ -2826,13 +2735,13 @@
         <v>19</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T23" s="11" t="s">
         <v>138</v>
@@ -2967,7 +2876,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>70</v>
@@ -2976,19 +2885,19 @@
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
       <c r="O27" s="27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T27" s="11" t="s">
         <v>139</v>
@@ -3024,7 +2933,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>70</v>
@@ -3039,16 +2948,16 @@
         <v>19</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R28" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="T28" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>162</v>
@@ -3081,7 +2990,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>70</v>
@@ -3096,16 +3005,16 @@
         <v>19</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S29" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="T29" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>162</v>
@@ -3278,7 +3187,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>69</v>
@@ -3304,7 +3213,7 @@
         <v>151</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>152</v>
@@ -3326,7 +3235,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
       <c r="G35" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H35" s="22">
         <v>18</v>
@@ -3335,7 +3244,7 @@
         <v>19</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>69</v>
@@ -3361,7 +3270,7 @@
         <v>156</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>158</v>
@@ -3438,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>70</v>
@@ -3453,13 +3362,13 @@
         <v>19</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T36" s="11" t="s">
         <v>142</v>
@@ -3493,7 +3402,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K37" s="24" t="s">
         <v>70</v>
@@ -3508,13 +3417,13 @@
         <v>19</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T37" s="11" t="s">
         <v>143</v>
@@ -3550,7 +3459,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>70</v>
@@ -3565,13 +3474,13 @@
         <v>19</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T38" s="11" t="s">
         <v>144</v>
@@ -3660,7 +3569,7 @@
         <v>98</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
@@ -3759,7 +3668,7 @@
         <v>98</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>127</v>
@@ -3831,7 +3740,7 @@
         <v>129</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H46" s="22">
         <v>22</v>
@@ -3840,7 +3749,7 @@
         <v>19</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K46" s="24" t="s">
         <v>69</v>
@@ -3851,7 +3760,7 @@
       <c r="M46" s="28"/>
       <c r="N46" s="28"/>
       <c r="O46" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P46" s="26" t="s">
         <v>19</v>
@@ -3863,13 +3772,13 @@
         <v>155</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:67" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3899,7 +3808,7 @@
         <v>20</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K47" s="24" t="s">
         <v>70</v>
@@ -3916,16 +3825,16 @@
         <v>19</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>162</v>
@@ -3995,7 +3904,7 @@
         <v>129</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H48" s="22">
         <v>24</v>
@@ -4004,7 +3913,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="K48" s="24" t="s">
         <v>69</v>
@@ -4030,7 +3939,7 @@
         <v>151</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U48" s="2" t="s">
         <v>152</v>
@@ -4107,7 +4016,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K49" s="24" t="s">
         <v>70</v>
@@ -4122,13 +4031,13 @@
         <v>20</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T49" s="11" t="s">
         <v>133</v>
@@ -4164,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K50" s="24" t="s">
         <v>69</v>
@@ -4190,7 +4099,7 @@
         <v>151</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>152</v>
@@ -4207,7 +4116,7 @@
         <v>91</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
@@ -4221,7 +4130,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="K51" s="24" t="s">
         <v>70</v>
@@ -4238,16 +4147,16 @@
         <v>19</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>162</v>
@@ -4264,12 +4173,12 @@
         <v>91</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
       <c r="G52" s="21" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H52" s="22">
         <v>28</v>
@@ -4278,7 +4187,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K52" s="24" t="s">
         <v>70</v>
@@ -4295,16 +4204,16 @@
         <v>19</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>162</v>
@@ -4381,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>69</v>
@@ -4426,7 +4335,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K54" s="24" t="s">
         <v>69</v>
@@ -4452,7 +4361,7 @@
         <v>151</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>152</v>
@@ -4472,7 +4381,7 @@
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
       <c r="G55" s="21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H55" s="22">
         <v>31</v>
@@ -4481,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K55" s="24" t="s">
         <v>69</v>
@@ -4507,7 +4416,7 @@
         <v>151</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>152</v>
@@ -5527,6 +5436,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="U1:U2"/>
@@ -5542,11 +5456,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
